--- a/target/test-classes/com/inetbanking/testdata/logindata.xlsx
+++ b/target/test-classes/com/inetbanking/testdata/logindata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -28,16 +28,25 @@
     <t>password</t>
   </si>
   <si>
-    <t>mngr259347</t>
-  </si>
-  <si>
-    <t>sUpEdUh</t>
-  </si>
-  <si>
-    <t>bapebat</t>
-  </si>
-  <si>
-    <t>mngr276132</t>
+    <t>UrEtEbu</t>
+  </si>
+  <si>
+    <t>mngr324341</t>
+  </si>
+  <si>
+    <t>kjkj</t>
+  </si>
+  <si>
+    <t>kjkjk</t>
+  </si>
+  <si>
+    <t>uiiuiu</t>
+  </si>
+  <si>
+    <t>ooioi</t>
+  </si>
+  <si>
+    <t>oioi</t>
   </si>
 </sst>
 </file>
@@ -386,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B5" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,30 +415,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
+    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
